--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -538,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="134" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1365,7 +1413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1565,11 +1613,23 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1710,8 +1770,16 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="129" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="130" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="131" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="133" fillId="0" borderId="64" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="132" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="133" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="134" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="135" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="136" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="137" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="138" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="139" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="141" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
